--- a/migforecasting/less100/tests/test-1.xlsx
+++ b/migforecasting/less100/tests/test-1.xlsx
@@ -30,13 +30,7 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Random Forest-100 (citiesdataset-NYDcor-5.csv) - next year, without dollar</t>
-  </si>
-  <si>
     <t>test input (MAPE)</t>
-  </si>
-  <si>
-    <t>Random Forest-100 (citiesdataset-Dcor-5.csv) - next year, without dollar</t>
   </si>
   <si>
     <t>Next Year</t>
@@ -46,6 +40,12 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (citiesdataset-NYDcor-4.csv) - next year, without dollar</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - next year, without dollar</t>
   </si>
 </sst>
 </file>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="W62" sqref="W62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,21 +1483,21 @@
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
@@ -2332,15 +2332,15 @@
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E63" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F63" s="3">
         <v>9.2185059697096214</v>

--- a/migforecasting/less100/tests/test-1.xlsx
+++ b/migforecasting/less100/tests/test-1.xlsx
@@ -45,7 +45,7 @@
     <t>Random Forest-100 (citiesdataset-NYDcor-4.csv) - next year, without dollar</t>
   </si>
   <si>
-    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - next year, without dollar</t>
+    <t>Random Forest-100 (citiesdataset-Dcor-4.csv) - this year, without dollar</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1462,7 @@
   <dimension ref="C3:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
